--- a/sks-kobe-t/pdf/report15.xlsx
+++ b/sks-kobe-t/pdf/report15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itc_2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAB1D4C-4501-4CEB-BF40-7554D836B56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178CB91-BF11-4976-93B2-2E8B2B3C379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B61F6E8B-0D2D-43ED-85FF-24717EBE89DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B61F6E8B-0D2D-43ED-85FF-24717EBE89DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -523,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -546,30 +546,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,11 +562,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,9 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -624,6 +604,521 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E81C85-8895-48D5-BF70-044C5FB71686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3050801" y="1748118"/>
+          <a:ext cx="876861" cy="232523"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>232523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3242E539-2728-4E53-AB82-E0237B9143ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3927662" y="1742515"/>
+          <a:ext cx="876861" cy="232523"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>232523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1103ED79-0A83-4A81-B97E-88319B2A3E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4804522" y="1742515"/>
+          <a:ext cx="876861" cy="232523"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>232523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A89267F-90FE-40F4-8048-BE4FDFA16D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5681382" y="1742515"/>
+          <a:ext cx="876861" cy="232523"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>236838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>808338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>232524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52B21BC-2431-46C9-820B-ACA4A0049E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6546507" y="1747966"/>
+          <a:ext cx="808338" cy="235099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>808338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFA4AFD-A7CF-4724-ABED-766EE59323D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7357419" y="1750541"/>
+          <a:ext cx="808338" cy="235099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>808338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEECB1DF-BD34-4342-A60A-CF00FD5ECB79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8168331" y="1750541"/>
+          <a:ext cx="808338" cy="235099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>810912</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166950B5-30C2-4268-93F3-67E21175DCC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8979243" y="1750541"/>
+          <a:ext cx="808338" cy="235099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>810912</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>808338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6514FAD2-8897-4A8F-81A9-D6BC2451DED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9790155" y="1750541"/>
+          <a:ext cx="808338" cy="235099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>808338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242CC2F1-08BA-4608-8D89-95C613396126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10601068" y="1750541"/>
+          <a:ext cx="808338" cy="235099"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,12 +1419,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2702B8B9-DE36-42DB-BB7F-B8D67BD582D7}">
   <sheetPr>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -940,7 +1435,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1063,16 +1558,16 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
@@ -1105,7 +1600,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="5"/>
@@ -1157,7 +1652,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="5"/>
@@ -1209,7 +1704,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="5"/>
@@ -1261,7 +1756,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="5"/>
@@ -1313,7 +1808,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="5"/>
@@ -1365,7 +1860,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="5"/>
@@ -1417,7 +1912,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="5"/>
@@ -1554,7 +2049,8 @@
     <mergeCell ref="A9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.74803149606299213" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sks-kobe-t/pdf/report15.xlsx
+++ b/sks-kobe-t/pdf/report15.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178CB91-BF11-4976-93B2-2E8B2B3C379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF7DD7-5E17-4881-934C-609E32CFCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B61F6E8B-0D2D-43ED-85FF-24717EBE89DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>チェックシート</t>
     <phoneticPr fontId="1"/>
@@ -436,6 +430,76 @@
     <t>＊緊急を要する場合には、連絡体制に従って、速やかに連絡を入れてください。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>11回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20回目</t>
+    <rPh sb="2" eb="4">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -523,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -546,13 +610,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,6 +707,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,13 +759,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876860</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -663,13 +810,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>232523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -714,13 +861,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>232523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -765,13 +912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>876860</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>232523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -816,13 +963,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>236838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>232524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -867,13 +1014,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -918,13 +1065,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -969,13 +1116,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>810912</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1020,13 +1167,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>810912</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1071,13 +1218,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1421,10 +1568,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1441,12 +1588,12 @@
     </row>
     <row r="2" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1479,12 +1626,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1497,12 +1644,10 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1514,50 +1659,68 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1570,486 +1733,578 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="4" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="4" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="4" t="s">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6" t="s">
+      <c r="J29" s="6"/>
+      <c r="K29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="4" t="s">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="4" t="s">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6" t="s">
+      <c r="J35" s="6"/>
+      <c r="K35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6" t="s">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="28">
+    <mergeCell ref="K32:N34"/>
+    <mergeCell ref="K35:N37"/>
+    <mergeCell ref="K38:N40"/>
+    <mergeCell ref="A16:D40"/>
+    <mergeCell ref="E16:H40"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="I35:J37"/>
+    <mergeCell ref="I38:J40"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="K23:N25"/>
     <mergeCell ref="K26:N28"/>
-    <mergeCell ref="K29:N31"/>
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="A10:D34"/>
-    <mergeCell ref="E10:H34"/>
-    <mergeCell ref="I26:J28"/>
-    <mergeCell ref="I29:J31"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="K11:N13"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:J13"/>
-    <mergeCell ref="I14:J16"/>
+    <mergeCell ref="I16:N16"/>
     <mergeCell ref="I17:J19"/>
     <mergeCell ref="I20:J22"/>
     <mergeCell ref="I23:J25"/>
-    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="I26:J28"/>
+    <mergeCell ref="I29:J31"/>
+    <mergeCell ref="K29:N31"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A4:D5"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.74803149606299213" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.74803149606299213" right="0.23622047244094491" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/sks-kobe-t/pdf/report15.xlsx
+++ b/sks-kobe-t/pdf/report15.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF7DD7-5E17-4881-934C-609E32CFCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA11D0D-21A9-489E-BF02-38AD6FCD93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B61F6E8B-0D2D-43ED-85FF-24717EBE89DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{B61F6E8B-0D2D-43ED-85FF-24717EBE89DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>チェックシート</t>
     <phoneticPr fontId="1"/>
@@ -694,17 +694,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -726,15 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,13 +759,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876860</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -810,13 +810,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>232523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -861,13 +861,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>232523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -912,13 +912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>876860</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>232523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -963,13 +963,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>236838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>232524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1014,13 +1014,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1065,13 +1065,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1116,13 +1116,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>810912</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1167,13 +1167,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>810912</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1218,13 +1218,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>808338</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1568,10 +1568,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1588,12 +1588,12 @@
     </row>
     <row r="2" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,12 +1626,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1644,10 +1644,10 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1660,12 +1660,12 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1677,84 +1677,86 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1766,14 +1768,29 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1786,12 +1803,12 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1804,12 +1821,12 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1821,490 +1838,511 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="9" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="5" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="5" t="s">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="5" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="5" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="5" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="5" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="5" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="K35:N37"/>
-    <mergeCell ref="K38:N40"/>
-    <mergeCell ref="A16:D40"/>
-    <mergeCell ref="E16:H40"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="I35:J37"/>
-    <mergeCell ref="I38:J40"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="K26:N28"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:J19"/>
-    <mergeCell ref="I20:J22"/>
-    <mergeCell ref="I23:J25"/>
-    <mergeCell ref="I26:J28"/>
-    <mergeCell ref="I29:J31"/>
-    <mergeCell ref="K29:N31"/>
+  <mergeCells count="30">
+    <mergeCell ref="I28:J30"/>
+    <mergeCell ref="I31:J33"/>
+    <mergeCell ref="K31:N33"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A4:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="K34:N36"/>
+    <mergeCell ref="K37:N39"/>
+    <mergeCell ref="K40:N42"/>
+    <mergeCell ref="A18:D42"/>
+    <mergeCell ref="E18:H42"/>
+    <mergeCell ref="I34:J36"/>
+    <mergeCell ref="I37:J39"/>
+    <mergeCell ref="I40:J42"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="K25:N27"/>
+    <mergeCell ref="K28:N30"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:J24"/>
+    <mergeCell ref="I25:J27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.74803149606299213" right="0.23622047244094491" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.74803149606299213" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
